--- a/MIS/public/templateJS.xlsx
+++ b/MIS/public/templateJS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thasan\OneDrive - Dewhirst Group Ltd\Documents\Job Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ad PROJECT\MIS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CCF175-B462-475C-A76B-460A18A8C7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B2DE2A-7B5B-4F58-B782-AD9DE88F19F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,19 +360,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,86 +374,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -472,6 +390,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -479,6 +430,63 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,8 +771,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,34 +784,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -813,374 +821,370 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="F4" s="36" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="F6" s="36" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="F6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="F8" s="36" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="F8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="33" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="34" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="16"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="17"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="17"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="17"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="17"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="36"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="17"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="17"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="17"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="36"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="39"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="41" t="s">
+      <c r="J27" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25">
+      <c r="A28" s="40">
         <v>1</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="22"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="42" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J31" s="43" t="s">
+      <c r="J31" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
+      <c r="A36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
+      <c r="A37" s="7"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
+      <c r="A39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="7"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="A15:C23"/>
-    <mergeCell ref="D15:G23"/>
-    <mergeCell ref="H15:J23"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="B27:F27"/>
+  <mergeCells count="25">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G8:J8"/>
@@ -1190,10 +1194,16 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A15:C23"/>
+    <mergeCell ref="D15:G23"/>
+    <mergeCell ref="H15:J23"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B38:E38"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
